--- a/biology/Botanique/Lilium_pumilum/Lilium_pumilum.xlsx
+++ b/biology/Botanique/Lilium_pumilum/Lilium_pumilum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lilium pumilum est une espèce asiatique de plantes bulbeuse vivace de la famille des Liliaceae originaire de Mongolie, de Sibérie, de l'Extrême-Orient russe (Krai de l'Amour, Primorye, Khabarovsk), de Corée et du nord de la Chine[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lilium pumilum est une espèce asiatique de plantes bulbeuse vivace de la famille des Liliaceae originaire de Mongolie, de Sibérie, de l'Extrême-Orient russe (Krai de l'Amour, Primorye, Khabarovsk), de Corée et du nord de la Chine.
 Elle est dénommée Pumilum ('poo` mill`um) pour sa petite taille, par rapport aux autres lis.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bulbe à racines peut atteindre 1 mètre, bien que généralement plutôt moins. L’ombelle elle-même mesure 4-5 pouces et peut vivre de 2 à 4 ans[5]. Les feuilles sont minces et herbacées. Il porte de une à vingt fleurs réflexes et inclinées de la tête, généralement de couleur rouge, et qui peuvent être tachées de noir. Les fleurs sont parfumées[6].
-Sa culture peut être de courte durée, mais elle a tendance à durer plus longtemps dans des sols bien drainés[7]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bulbe à racines peut atteindre 1 mètre, bien que généralement plutôt moins. L’ombelle elle-même mesure 4-5 pouces et peut vivre de 2 à 4 ans. Les feuilles sont minces et herbacées. Il porte de une à vingt fleurs réflexes et inclinées de la tête, généralement de couleur rouge, et qui peuvent être tachées de noir. Les fleurs sont parfumées.
+Sa culture peut être de courte durée, mais elle a tendance à durer plus longtemps dans des sols bien drainés
 </t>
         </is>
       </c>
